--- a/interm_data/CM_auctions/auction17.xlsx
+++ b/interm_data/CM_auctions/auction17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/lucas_schmitz_yale_edu/Documents/GitHub/2nd-year-paper/interm_data/CM_auctions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3FAD378A5B005B30E7F83411595ED87656C9D80F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869BBF9B-EAC6-403B-99C0-EB91243F0E19}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_3FAD378A5B005B30E7F83411595ED87656C9D80F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CCEDF9E-EB71-4C22-9551-8C5B4EAC5D26}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1706,6 +1706,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2000,7 +2004,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
